--- a/medicine/Sexualité et sexologie/Érection_féminine/Érection_féminine.xlsx
+++ b/medicine/Sexualité et sexologie/Érection_féminine/Érection_féminine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rection_f%C3%A9minine</t>
+          <t>Érection_féminine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’érection féminine est un phénomène physiologique dans lequel le clitoris et le vestibule vulvaire deviennent fermes et s’élargissent. Il a été observé par échographie en trois dimensions en 2010[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’érection féminine est un phénomène physiologique dans lequel le clitoris et le vestibule vulvaire deviennent fermes et s’élargissent. Il a été observé par échographie en trois dimensions en 2010. 
 Cette érection est le résultat d’une interaction complexe de facteurs endocriniens, psychologiques, neurologiques et vasculaires, et est habituellement mais pas exclusivement associée à l'excitation sexuelle ou l'attirance sexuelle.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rection_f%C3%A9minine</t>
+          <t>Érection_féminine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
